--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Fndc5-Itgb5.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Fndc5-Itgb5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Itgb5</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.704832327383475</v>
+        <v>0.7373436666666667</v>
       </c>
       <c r="H2">
-        <v>0.704832327383475</v>
+        <v>2.212031</v>
       </c>
       <c r="I2">
-        <v>0.1948936413027027</v>
+        <v>0.1678759332276003</v>
       </c>
       <c r="J2">
-        <v>0.1948936413027027</v>
+        <v>0.1678759332276003</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.98455214290432</v>
+        <v>4.996106333333334</v>
       </c>
       <c r="N2">
-        <v>4.98455214290432</v>
+        <v>14.988319</v>
       </c>
       <c r="O2">
-        <v>0.03411316048237701</v>
+        <v>0.03290675360012103</v>
       </c>
       <c r="P2">
-        <v>0.03411316048237701</v>
+        <v>0.03290675360012103</v>
       </c>
       <c r="Q2">
-        <v>3.51327348784754</v>
+        <v>3.683847362876556</v>
       </c>
       <c r="R2">
-        <v>3.51327348784754</v>
+        <v>33.154626265889</v>
       </c>
       <c r="S2">
-        <v>0.006648438062753919</v>
+        <v>0.005524251970111013</v>
       </c>
       <c r="T2">
-        <v>0.006648438062753919</v>
+        <v>0.005524251970111013</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.704832327383475</v>
+        <v>0.7373436666666667</v>
       </c>
       <c r="H3">
-        <v>0.704832327383475</v>
+        <v>2.212031</v>
       </c>
       <c r="I3">
-        <v>0.1948936413027027</v>
+        <v>0.1678759332276003</v>
       </c>
       <c r="J3">
-        <v>0.1948936413027027</v>
+        <v>0.1678759332276003</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>35.3503163588767</v>
+        <v>35.40750366666666</v>
       </c>
       <c r="N3">
-        <v>35.3503163588767</v>
+        <v>106.222511</v>
       </c>
       <c r="O3">
-        <v>0.2419296619797254</v>
+        <v>0.233210808781368</v>
       </c>
       <c r="P3">
-        <v>0.2419296619797254</v>
+        <v>0.233210808781368</v>
       </c>
       <c r="Q3">
-        <v>24.91604575296919</v>
+        <v>26.10749858109345</v>
       </c>
       <c r="R3">
-        <v>24.91604575296919</v>
+        <v>234.967487229841</v>
       </c>
       <c r="S3">
-        <v>0.04715055276236071</v>
+        <v>0.0391504821629356</v>
       </c>
       <c r="T3">
-        <v>0.04715055276236071</v>
+        <v>0.0391504821629356</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.704832327383475</v>
+        <v>0.7373436666666667</v>
       </c>
       <c r="H4">
-        <v>0.704832327383475</v>
+        <v>2.212031</v>
       </c>
       <c r="I4">
-        <v>0.1948936413027027</v>
+        <v>0.1678759332276003</v>
       </c>
       <c r="J4">
-        <v>0.1948936413027027</v>
+        <v>0.1678759332276003</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>56.514998758148</v>
+        <v>56.959315</v>
       </c>
       <c r="N4">
-        <v>56.514998758148</v>
+        <v>170.877945</v>
       </c>
       <c r="O4">
-        <v>0.3867760165860596</v>
+        <v>0.3751613794588995</v>
       </c>
       <c r="P4">
-        <v>0.3867760165860596</v>
+        <v>0.3751613794588995</v>
       </c>
       <c r="Q4">
-        <v>39.83359810677965</v>
+        <v>41.99859017292167</v>
       </c>
       <c r="R4">
-        <v>39.83359810677965</v>
+        <v>377.987311556295</v>
       </c>
       <c r="S4">
-        <v>0.0753801862410117</v>
+        <v>0.06298056668761663</v>
       </c>
       <c r="T4">
-        <v>0.0753801862410117</v>
+        <v>0.06298056668761663</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.704832327383475</v>
+        <v>0.7373436666666667</v>
       </c>
       <c r="H5">
-        <v>0.704832327383475</v>
+        <v>2.212031</v>
       </c>
       <c r="I5">
-        <v>0.1948936413027027</v>
+        <v>0.1678759332276003</v>
       </c>
       <c r="J5">
-        <v>0.1948936413027027</v>
+        <v>0.1678759332276003</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>45.4541415294401</v>
+        <v>50.47994633333334</v>
       </c>
       <c r="N5">
-        <v>45.4541415294401</v>
+        <v>151.439839</v>
       </c>
       <c r="O5">
-        <v>0.311077982560535</v>
+        <v>0.3324851484155761</v>
       </c>
       <c r="P5">
-        <v>0.311077982560535</v>
+        <v>0.3324851484155761</v>
       </c>
       <c r="Q5">
-        <v>32.03754836341313</v>
+        <v>37.22106872255656</v>
       </c>
       <c r="R5">
-        <v>32.03754836341313</v>
+        <v>334.989618503009</v>
       </c>
       <c r="S5">
-        <v>0.06062712075032133</v>
+        <v>0.05581625457458203</v>
       </c>
       <c r="T5">
-        <v>0.06062712075032133</v>
+        <v>0.05581625457458203</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.704832327383475</v>
+        <v>0.7373436666666667</v>
       </c>
       <c r="H6">
-        <v>0.704832327383475</v>
+        <v>2.212031</v>
       </c>
       <c r="I6">
-        <v>0.1948936413027027</v>
+        <v>0.1678759332276003</v>
       </c>
       <c r="J6">
-        <v>0.1948936413027027</v>
+        <v>0.1678759332276003</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.81414832126737</v>
+        <v>3.983297666666667</v>
       </c>
       <c r="N6">
-        <v>3.81414832126737</v>
+        <v>11.949893</v>
       </c>
       <c r="O6">
-        <v>0.02610317839130291</v>
+        <v>0.02623590974403541</v>
       </c>
       <c r="P6">
-        <v>0.02610317839130291</v>
+        <v>0.02623590974403541</v>
       </c>
       <c r="Q6">
-        <v>2.688335038264654</v>
+        <v>2.937059306964778</v>
       </c>
       <c r="R6">
-        <v>2.688335038264654</v>
+        <v>26.43353376268301</v>
       </c>
       <c r="S6">
-        <v>0.005087343486255049</v>
+        <v>0.004404377832355037</v>
       </c>
       <c r="T6">
-        <v>0.005087343486255049</v>
+        <v>0.004404377832355037</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.85009784174101</v>
+        <v>1.856540333333333</v>
       </c>
       <c r="H7">
-        <v>1.85009784174101</v>
+        <v>5.569621</v>
       </c>
       <c r="I7">
-        <v>0.5115717471156823</v>
+        <v>0.422690876890532</v>
       </c>
       <c r="J7">
-        <v>0.5115717471156823</v>
+        <v>0.422690876890532</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.98455214290432</v>
+        <v>4.996106333333334</v>
       </c>
       <c r="N7">
-        <v>4.98455214290432</v>
+        <v>14.988319</v>
       </c>
       <c r="O7">
-        <v>0.03411316048237701</v>
+        <v>0.03290675360012103</v>
       </c>
       <c r="P7">
-        <v>0.03411316048237701</v>
+        <v>0.03290675360012103</v>
       </c>
       <c r="Q7">
-        <v>9.22190916163281</v>
+        <v>9.275472917455444</v>
       </c>
       <c r="R7">
-        <v>9.22190916163281</v>
+        <v>83.479256257099</v>
       </c>
       <c r="S7">
-        <v>0.01745132910760726</v>
+        <v>0.01390938453485583</v>
       </c>
       <c r="T7">
-        <v>0.01745132910760726</v>
+        <v>0.01390938453485583</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.85009784174101</v>
+        <v>1.856540333333333</v>
       </c>
       <c r="H8">
-        <v>1.85009784174101</v>
+        <v>5.569621</v>
       </c>
       <c r="I8">
-        <v>0.5115717471156823</v>
+        <v>0.422690876890532</v>
       </c>
       <c r="J8">
-        <v>0.5115717471156823</v>
+        <v>0.422690876890532</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>35.3503163588767</v>
+        <v>35.40750366666666</v>
       </c>
       <c r="N8">
-        <v>35.3503163588767</v>
+        <v>106.222511</v>
       </c>
       <c r="O8">
-        <v>0.2419296619797254</v>
+        <v>0.233210808781368</v>
       </c>
       <c r="P8">
-        <v>0.2419296619797254</v>
+        <v>0.233210808781368</v>
       </c>
       <c r="Q8">
-        <v>65.4015440004197</v>
+        <v>65.73545865981454</v>
       </c>
       <c r="R8">
-        <v>65.4015440004197</v>
+        <v>591.619127938331</v>
       </c>
       <c r="S8">
-        <v>0.1237643798580746</v>
+        <v>0.09857608126414662</v>
       </c>
       <c r="T8">
-        <v>0.1237643798580746</v>
+        <v>0.09857608126414663</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.85009784174101</v>
+        <v>1.856540333333333</v>
       </c>
       <c r="H9">
-        <v>1.85009784174101</v>
+        <v>5.569621</v>
       </c>
       <c r="I9">
-        <v>0.5115717471156823</v>
+        <v>0.422690876890532</v>
       </c>
       <c r="J9">
-        <v>0.5115717471156823</v>
+        <v>0.422690876890532</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>56.514998758148</v>
+        <v>56.959315</v>
       </c>
       <c r="N9">
-        <v>56.514998758148</v>
+        <v>170.877945</v>
       </c>
       <c r="O9">
-        <v>0.3867760165860596</v>
+        <v>0.3751613794588995</v>
       </c>
       <c r="P9">
-        <v>0.3867760165860596</v>
+        <v>0.3751613794588995</v>
       </c>
       <c r="Q9">
-        <v>104.5582772284455</v>
+        <v>105.7472656565383</v>
       </c>
       <c r="R9">
-        <v>104.5582772284455</v>
+        <v>951.725390908845</v>
       </c>
       <c r="S9">
-        <v>0.1978636825473746</v>
+        <v>0.1585772924589438</v>
       </c>
       <c r="T9">
-        <v>0.1978636825473746</v>
+        <v>0.1585772924589438</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.85009784174101</v>
+        <v>1.856540333333333</v>
       </c>
       <c r="H10">
-        <v>1.85009784174101</v>
+        <v>5.569621</v>
       </c>
       <c r="I10">
-        <v>0.5115717471156823</v>
+        <v>0.422690876890532</v>
       </c>
       <c r="J10">
-        <v>0.5115717471156823</v>
+        <v>0.422690876890532</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>45.4541415294401</v>
+        <v>50.47994633333334</v>
       </c>
       <c r="N10">
-        <v>45.4541415294401</v>
+        <v>151.439839</v>
       </c>
       <c r="O10">
-        <v>0.311077982560535</v>
+        <v>0.3324851484155761</v>
       </c>
       <c r="P10">
-        <v>0.311077982560535</v>
+        <v>0.3324851484155761</v>
       </c>
       <c r="Q10">
-        <v>84.09460914180755</v>
+        <v>93.71805639233544</v>
       </c>
       <c r="R10">
-        <v>84.09460914180755</v>
+        <v>843.462507531019</v>
       </c>
       <c r="S10">
-        <v>0.1591387070277147</v>
+        <v>0.1405384389368585</v>
       </c>
       <c r="T10">
-        <v>0.1591387070277147</v>
+        <v>0.1405384389368585</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.85009784174101</v>
+        <v>1.856540333333333</v>
       </c>
       <c r="H11">
-        <v>1.85009784174101</v>
+        <v>5.569621</v>
       </c>
       <c r="I11">
-        <v>0.5115717471156823</v>
+        <v>0.422690876890532</v>
       </c>
       <c r="J11">
-        <v>0.5115717471156823</v>
+        <v>0.422690876890532</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.81414832126737</v>
+        <v>3.983297666666667</v>
       </c>
       <c r="N11">
-        <v>3.81414832126737</v>
+        <v>11.949893</v>
       </c>
       <c r="O11">
-        <v>0.02610317839130291</v>
+        <v>0.02623590974403541</v>
       </c>
       <c r="P11">
-        <v>0.02610317839130291</v>
+        <v>0.02623590974403541</v>
       </c>
       <c r="Q11">
-        <v>7.056547577256858</v>
+        <v>7.395152777839223</v>
       </c>
       <c r="R11">
-        <v>7.056547577256858</v>
+        <v>66.556375000553</v>
       </c>
       <c r="S11">
-        <v>0.01335364857491115</v>
+        <v>0.01108967969572718</v>
       </c>
       <c r="T11">
-        <v>0.01335364857491115</v>
+        <v>0.01108967969572718</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>1.06156712997801</v>
+        <v>0.06709466666666666</v>
       </c>
       <c r="H12">
-        <v>1.06156712997801</v>
+        <v>0.201284</v>
       </c>
       <c r="I12">
-        <v>0.2935346115816148</v>
+        <v>0.01527588869404827</v>
       </c>
       <c r="J12">
-        <v>0.2935346115816148</v>
+        <v>0.01527588869404827</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.98455214290432</v>
+        <v>4.996106333333334</v>
       </c>
       <c r="N12">
-        <v>4.98455214290432</v>
+        <v>14.988319</v>
       </c>
       <c r="O12">
-        <v>0.03411316048237701</v>
+        <v>0.03290675360012103</v>
       </c>
       <c r="P12">
-        <v>0.03411316048237701</v>
+        <v>0.03290675360012103</v>
       </c>
       <c r="Q12">
-        <v>5.291436712568679</v>
+        <v>0.3352120890662222</v>
       </c>
       <c r="R12">
-        <v>5.291436712568679</v>
+        <v>3.016908801596</v>
       </c>
       <c r="S12">
-        <v>0.01001339331201583</v>
+        <v>0.0005026799052779211</v>
       </c>
       <c r="T12">
-        <v>0.01001339331201583</v>
+        <v>0.0005026799052779211</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>1.06156712997801</v>
+        <v>0.06709466666666666</v>
       </c>
       <c r="H13">
-        <v>1.06156712997801</v>
+        <v>0.201284</v>
       </c>
       <c r="I13">
-        <v>0.2935346115816148</v>
+        <v>0.01527588869404827</v>
       </c>
       <c r="J13">
-        <v>0.2935346115816148</v>
+        <v>0.01527588869404827</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>35.3503163588767</v>
+        <v>35.40750366666666</v>
       </c>
       <c r="N13">
-        <v>35.3503163588767</v>
+        <v>106.222511</v>
       </c>
       <c r="O13">
-        <v>0.2419296619797254</v>
+        <v>0.233210808781368</v>
       </c>
       <c r="P13">
-        <v>0.2419296619797254</v>
+        <v>0.233210808781368</v>
       </c>
       <c r="Q13">
-        <v>37.52673388090744</v>
+        <v>2.375654656013777</v>
       </c>
       <c r="R13">
-        <v>37.52673388090744</v>
+        <v>21.380891904124</v>
       </c>
       <c r="S13">
-        <v>0.07101472935929005</v>
+        <v>0.003562502357193153</v>
       </c>
       <c r="T13">
-        <v>0.07101472935929005</v>
+        <v>0.003562502357193154</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>1.06156712997801</v>
+        <v>0.06709466666666666</v>
       </c>
       <c r="H14">
-        <v>1.06156712997801</v>
+        <v>0.201284</v>
       </c>
       <c r="I14">
-        <v>0.2935346115816148</v>
+        <v>0.01527588869404827</v>
       </c>
       <c r="J14">
-        <v>0.2935346115816148</v>
+        <v>0.01527588869404827</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>56.514998758148</v>
+        <v>56.959315</v>
       </c>
       <c r="N14">
-        <v>56.514998758148</v>
+        <v>170.877945</v>
       </c>
       <c r="O14">
-        <v>0.3867760165860596</v>
+        <v>0.3751613794588995</v>
       </c>
       <c r="P14">
-        <v>0.3867760165860596</v>
+        <v>0.3751613794588995</v>
       </c>
       <c r="Q14">
-        <v>59.99446503239798</v>
+        <v>3.821666253486667</v>
       </c>
       <c r="R14">
-        <v>59.99446503239798</v>
+        <v>34.39499628138</v>
       </c>
       <c r="S14">
-        <v>0.1135321477976732</v>
+        <v>0.005730923474919757</v>
       </c>
       <c r="T14">
-        <v>0.1135321477976732</v>
+        <v>0.005730923474919757</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>1.06156712997801</v>
+        <v>0.06709466666666666</v>
       </c>
       <c r="H15">
-        <v>1.06156712997801</v>
+        <v>0.201284</v>
       </c>
       <c r="I15">
-        <v>0.2935346115816148</v>
+        <v>0.01527588869404827</v>
       </c>
       <c r="J15">
-        <v>0.2935346115816148</v>
+        <v>0.01527588869404827</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>45.4541415294401</v>
+        <v>50.47994633333334</v>
       </c>
       <c r="N15">
-        <v>45.4541415294401</v>
+        <v>151.439839</v>
       </c>
       <c r="O15">
-        <v>0.311077982560535</v>
+        <v>0.3324851484155761</v>
       </c>
       <c r="P15">
-        <v>0.311077982560535</v>
+        <v>0.3324851484155761</v>
       </c>
       <c r="Q15">
-        <v>48.252622569022</v>
+        <v>3.386935172586222</v>
       </c>
       <c r="R15">
-        <v>48.252622569022</v>
+        <v>30.482416553276</v>
       </c>
       <c r="S15">
-        <v>0.091312154782499</v>
+        <v>0.005079006119620461</v>
       </c>
       <c r="T15">
-        <v>0.091312154782499</v>
+        <v>0.005079006119620461</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.06709466666666666</v>
+      </c>
+      <c r="H16">
+        <v>0.201284</v>
+      </c>
+      <c r="I16">
+        <v>0.01527588869404827</v>
+      </c>
+      <c r="J16">
+        <v>0.01527588869404827</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.983297666666667</v>
+      </c>
+      <c r="N16">
+        <v>11.949893</v>
+      </c>
+      <c r="O16">
+        <v>0.02623590974403541</v>
+      </c>
+      <c r="P16">
+        <v>0.02623590974403541</v>
+      </c>
+      <c r="Q16">
+        <v>0.2672580291791111</v>
+      </c>
+      <c r="R16">
+        <v>2.405322262612</v>
+      </c>
+      <c r="S16">
+        <v>0.0004007768370369815</v>
+      </c>
+      <c r="T16">
+        <v>0.0004007768370369815</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.229926</v>
+      </c>
+      <c r="H17">
+        <v>0.689778</v>
+      </c>
+      <c r="I17">
+        <v>0.05234878058664986</v>
+      </c>
+      <c r="J17">
+        <v>0.05234878058664987</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>4.996106333333334</v>
+      </c>
+      <c r="N17">
+        <v>14.988319</v>
+      </c>
+      <c r="O17">
+        <v>0.03290675360012103</v>
+      </c>
+      <c r="P17">
+        <v>0.03290675360012103</v>
+      </c>
+      <c r="Q17">
+        <v>1.148734744798</v>
+      </c>
+      <c r="R17">
+        <v>10.338612703182</v>
+      </c>
+      <c r="S17">
+        <v>0.001722628424031686</v>
+      </c>
+      <c r="T17">
+        <v>0.001722628424031686</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.229926</v>
+      </c>
+      <c r="H18">
+        <v>0.689778</v>
+      </c>
+      <c r="I18">
+        <v>0.05234878058664986</v>
+      </c>
+      <c r="J18">
+        <v>0.05234878058664987</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>35.40750366666666</v>
+      </c>
+      <c r="N18">
+        <v>106.222511</v>
+      </c>
+      <c r="O18">
+        <v>0.233210808781368</v>
+      </c>
+      <c r="P18">
+        <v>0.233210808781368</v>
+      </c>
+      <c r="Q18">
+        <v>8.141105688061998</v>
+      </c>
+      <c r="R18">
+        <v>73.269951192558</v>
+      </c>
+      <c r="S18">
+        <v>0.01220830145933099</v>
+      </c>
+      <c r="T18">
+        <v>0.01220830145933099</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.229926</v>
+      </c>
+      <c r="H19">
+        <v>0.689778</v>
+      </c>
+      <c r="I19">
+        <v>0.05234878058664986</v>
+      </c>
+      <c r="J19">
+        <v>0.05234878058664987</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>56.959315</v>
+      </c>
+      <c r="N19">
+        <v>170.877945</v>
+      </c>
+      <c r="O19">
+        <v>0.3751613794588995</v>
+      </c>
+      <c r="P19">
+        <v>0.3751613794588995</v>
+      </c>
+      <c r="Q19">
+        <v>13.09642746069</v>
+      </c>
+      <c r="R19">
+        <v>117.86784714621</v>
+      </c>
+      <c r="S19">
+        <v>0.01963924073787882</v>
+      </c>
+      <c r="T19">
+        <v>0.01963924073787882</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.229926</v>
+      </c>
+      <c r="H20">
+        <v>0.689778</v>
+      </c>
+      <c r="I20">
+        <v>0.05234878058664986</v>
+      </c>
+      <c r="J20">
+        <v>0.05234878058664987</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>50.47994633333334</v>
+      </c>
+      <c r="N20">
+        <v>151.439839</v>
+      </c>
+      <c r="O20">
+        <v>0.3324851484155761</v>
+      </c>
+      <c r="P20">
+        <v>0.3324851484155761</v>
+      </c>
+      <c r="Q20">
+        <v>11.606652140638</v>
+      </c>
+      <c r="R20">
+        <v>104.459869265742</v>
+      </c>
+      <c r="S20">
+        <v>0.01740519208272671</v>
+      </c>
+      <c r="T20">
+        <v>0.01740519208272671</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.229926</v>
+      </c>
+      <c r="H21">
+        <v>0.689778</v>
+      </c>
+      <c r="I21">
+        <v>0.05234878058664986</v>
+      </c>
+      <c r="J21">
+        <v>0.05234878058664987</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3.983297666666667</v>
+      </c>
+      <c r="N21">
+        <v>11.949893</v>
+      </c>
+      <c r="O21">
+        <v>0.02623590974403541</v>
+      </c>
+      <c r="P21">
+        <v>0.02623590974403541</v>
+      </c>
+      <c r="Q21">
+        <v>0.9158636993060001</v>
+      </c>
+      <c r="R21">
+        <v>8.242773293754</v>
+      </c>
+      <c r="S21">
+        <v>0.001373417882681659</v>
+      </c>
+      <c r="T21">
+        <v>0.001373417882681659</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.501289333333333</v>
+      </c>
+      <c r="H22">
+        <v>4.503868000000001</v>
+      </c>
+      <c r="I22">
+        <v>0.3418085206011696</v>
+      </c>
+      <c r="J22">
+        <v>0.3418085206011696</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>4.996106333333334</v>
+      </c>
+      <c r="N22">
+        <v>14.988319</v>
+      </c>
+      <c r="O22">
+        <v>0.03290675360012103</v>
+      </c>
+      <c r="P22">
+        <v>0.03290675360012103</v>
+      </c>
+      <c r="Q22">
+        <v>7.500601146432445</v>
+      </c>
+      <c r="R22">
+        <v>67.50541031789201</v>
+      </c>
+      <c r="S22">
+        <v>0.01124780876584458</v>
+      </c>
+      <c r="T22">
+        <v>0.01124780876584458</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.501289333333333</v>
+      </c>
+      <c r="H23">
+        <v>4.503868000000001</v>
+      </c>
+      <c r="I23">
+        <v>0.3418085206011696</v>
+      </c>
+      <c r="J23">
+        <v>0.3418085206011696</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>35.40750366666666</v>
+      </c>
+      <c r="N23">
+        <v>106.222511</v>
+      </c>
+      <c r="O23">
+        <v>0.233210808781368</v>
+      </c>
+      <c r="P23">
+        <v>0.233210808781368</v>
+      </c>
+      <c r="Q23">
+        <v>53.15690757472755</v>
+      </c>
+      <c r="R23">
+        <v>478.412168172548</v>
+      </c>
+      <c r="S23">
+        <v>0.07971344153776166</v>
+      </c>
+      <c r="T23">
+        <v>0.07971344153776166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1.06156712997801</v>
-      </c>
-      <c r="H16">
-        <v>1.06156712997801</v>
-      </c>
-      <c r="I16">
-        <v>0.2935346115816148</v>
-      </c>
-      <c r="J16">
-        <v>0.2935346115816148</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>3.81414832126737</v>
-      </c>
-      <c r="N16">
-        <v>3.81414832126737</v>
-      </c>
-      <c r="O16">
-        <v>0.02610317839130291</v>
-      </c>
-      <c r="P16">
-        <v>0.02610317839130291</v>
-      </c>
-      <c r="Q16">
-        <v>4.048974486718247</v>
-      </c>
-      <c r="R16">
-        <v>4.048974486718247</v>
-      </c>
-      <c r="S16">
-        <v>0.0076621863301367</v>
-      </c>
-      <c r="T16">
-        <v>0.0076621863301367</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.501289333333333</v>
+      </c>
+      <c r="H24">
+        <v>4.503868000000001</v>
+      </c>
+      <c r="I24">
+        <v>0.3418085206011696</v>
+      </c>
+      <c r="J24">
+        <v>0.3418085206011696</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>56.959315</v>
+      </c>
+      <c r="N24">
+        <v>170.877945</v>
+      </c>
+      <c r="O24">
+        <v>0.3751613794588995</v>
+      </c>
+      <c r="P24">
+        <v>0.3751613794588995</v>
+      </c>
+      <c r="Q24">
+        <v>85.51241204347335</v>
+      </c>
+      <c r="R24">
+        <v>769.6117083912602</v>
+      </c>
+      <c r="S24">
+        <v>0.1282333560995405</v>
+      </c>
+      <c r="T24">
+        <v>0.1282333560995405</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.501289333333333</v>
+      </c>
+      <c r="H25">
+        <v>4.503868000000001</v>
+      </c>
+      <c r="I25">
+        <v>0.3418085206011696</v>
+      </c>
+      <c r="J25">
+        <v>0.3418085206011696</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>50.47994633333334</v>
+      </c>
+      <c r="N25">
+        <v>151.439839</v>
+      </c>
+      <c r="O25">
+        <v>0.3324851484155761</v>
+      </c>
+      <c r="P25">
+        <v>0.3324851484155761</v>
+      </c>
+      <c r="Q25">
+        <v>75.78500497747245</v>
+      </c>
+      <c r="R25">
+        <v>682.0650447972521</v>
+      </c>
+      <c r="S25">
+        <v>0.1136462567017884</v>
+      </c>
+      <c r="T25">
+        <v>0.1136462567017884</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.501289333333333</v>
+      </c>
+      <c r="H26">
+        <v>4.503868000000001</v>
+      </c>
+      <c r="I26">
+        <v>0.3418085206011696</v>
+      </c>
+      <c r="J26">
+        <v>0.3418085206011696</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>3.983297666666667</v>
+      </c>
+      <c r="N26">
+        <v>11.949893</v>
+      </c>
+      <c r="O26">
+        <v>0.02623590974403541</v>
+      </c>
+      <c r="P26">
+        <v>0.02623590974403541</v>
+      </c>
+      <c r="Q26">
+        <v>5.980082298458224</v>
+      </c>
+      <c r="R26">
+        <v>53.82074068612401</v>
+      </c>
+      <c r="S26">
+        <v>0.008967657496234554</v>
+      </c>
+      <c r="T26">
+        <v>0.008967657496234554</v>
       </c>
     </row>
   </sheetData>
